--- a/Data/Q/Nuuuli_Longitudinal_Profiles.xlsx
+++ b/Data/Q/Nuuuli_Longitudinal_Profiles.xlsx
@@ -272,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -302,6 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,11 +651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="503225760"/>
-        <c:axId val="503224192"/>
+        <c:axId val="339109544"/>
+        <c:axId val="339110328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="503225760"/>
+        <c:axId val="339109544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="170"/>
@@ -692,12 +693,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503224192"/>
+        <c:crossAx val="339110328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503224192"/>
+        <c:axId val="339110328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,21 +721,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503225760"/>
+        <c:crossAx val="339109544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1104,11 +1103,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="503226936"/>
-        <c:axId val="503221448"/>
+        <c:axId val="339111896"/>
+        <c:axId val="333955264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="503226936"/>
+        <c:axId val="339111896"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="170"/>
@@ -1146,12 +1145,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503221448"/>
+        <c:crossAx val="333955264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503221448"/>
+        <c:axId val="333955264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503226936"/>
+        <c:crossAx val="339111896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2177,7 +2176,7 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,21 +2218,21 @@
         <v>8</v>
       </c>
       <c r="G3" s="7">
-        <f>ABS(B8)+ABS(B21)</f>
-        <v>295</v>
+        <f>ABS(B12)+ABS(B17)</f>
+        <v>70</v>
       </c>
       <c r="H3" s="10">
         <f>G3*12*0.0254</f>
-        <v>89.915999999999997</v>
+        <v>21.335999999999999</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="20">
         <f>(G4/G3)*100</f>
-        <v>2.2528248587570623</v>
-      </c>
-      <c r="K3" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K3" s="23">
         <f>H4/H3</f>
-        <v>2.2528248587570618E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2245,12 +2244,12 @@
         <v>9</v>
       </c>
       <c r="G4" s="12">
-        <f>(-((E21*12)+F21)+((E8*12)+F8))/12</f>
-        <v>6.645833333333333</v>
+        <f>(-((E17*12)+F17)+((E12*12)+F12))/12</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="H4" s="12">
         <f>G4*12*0.0254</f>
-        <v>2.0256499999999997</v>
+        <v>0.17779999999999999</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
